--- a/xlsx/慈善组织_intext.xlsx
+++ b/xlsx/慈善组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>慈善组织</t>
   </si>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%90%E6%AC%BE</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%8C%E6%AC%BE</t>
   </si>
   <si>
-    <t>籌款</t>
+    <t>筹款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%85%88%E5%96%84%E6%80%BB%E4%BC%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B0%91%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國民政部</t>
+    <t>中华人民共和国民政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B3%95%E4%BE%8B</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%8B%99%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>稅務條例</t>
+    <t>税务条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%95%99%E5%B9%B3%E6%AC%8A</t>
   </si>
   <si>
-    <t>特教平權</t>
+    <t>特教平权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%80%B3</t>
   </si>
   <si>
-    <t>龍耳</t>
+    <t>龙耳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -137,15 +137,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
   </si>
   <si>
@@ -167,19 +164,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E6%9C%83</t>
   </si>
   <si>
-    <t>善會</t>
+    <t>善会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%96%BD%E7%B6%B2</t>
   </si>
   <si>
-    <t>惠施網</t>
+    <t>惠施网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%BD%E6%85%8E%E9%81%B8</t>
   </si>
   <si>
-    <t>明施慎選</t>
+    <t>明施慎选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BB%96%E4%B8%BB%E4%B9%89</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9</t>
   </si>
   <si>
-    <t>禮物</t>
+    <t>礼物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gift</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%90%E8%B4%88</t>
   </si>
   <si>
-    <t>捐贈</t>
+    <t>捐赠</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Donation</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E9%A1%98%E8%80%85</t>
   </si>
   <si>
-    <t>志願者</t>
+    <t>志愿者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Volunteering</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%97%97%E7%B1%8C%E6%AC%BE</t>
   </si>
   <si>
-    <t>賣旗籌款</t>
+    <t>卖旗筹款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%A3%9F</t>
@@ -1244,7 +1241,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1270,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1299,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1328,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1357,10 +1354,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1386,10 +1383,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1415,10 +1412,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1444,10 +1441,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1473,10 +1470,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1502,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1531,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1560,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1589,10 +1586,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1618,10 +1615,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1647,10 +1644,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1676,10 +1673,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1705,10 +1702,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1734,10 +1731,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1763,10 +1760,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -1792,10 +1789,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1821,10 +1818,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>13</v>
@@ -1850,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1879,10 +1876,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1908,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1937,10 +1934,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1966,10 +1963,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
